--- a/categorySort/notebooks/data/dictionary.xlsx
+++ b/categorySort/notebooks/data/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfad3d3100e0b584/addedIQ/Random/categorySort/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F6409B-E93D-48A2-82E8-F18D3267A52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{98F6409B-E93D-48A2-82E8-F18D3267A52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{095E8A73-D43D-4C70-9081-0F2507FBF83D}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2625" windowWidth="18225" windowHeight="11422" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
+    <workbookView xWindow="-8452" yWindow="-120" windowWidth="18225" windowHeight="11423" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -48,6 +48,366 @@
   </si>
   <si>
     <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Buick</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Checker</t>
+  </si>
+  <si>
+    <t>Chrysler</t>
+  </si>
+  <si>
+    <t>Citreon</t>
+  </si>
+  <si>
+    <t>Daihastu</t>
+  </si>
+  <si>
+    <t>Datsun</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>English Ford</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Infiniti</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Jenson</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Lancia</t>
+  </si>
+  <si>
+    <t>Land Rover</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>Masterati</t>
+  </si>
+  <si>
+    <t>Mazda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercedes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury </t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>NSU</t>
+  </si>
+  <si>
+    <t>Oldsmobile</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>Packard</t>
+  </si>
+  <si>
+    <t>Peugot</t>
+  </si>
+  <si>
+    <t>Plymoth</t>
+  </si>
+  <si>
+    <t>Pontiac</t>
+  </si>
+  <si>
+    <t>Porche</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Rambler</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Rolls Royce</t>
+  </si>
+  <si>
+    <t>Rover</t>
+  </si>
+  <si>
+    <t>SAAB</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelby </t>
+  </si>
+  <si>
+    <t>Simca</t>
+  </si>
+  <si>
+    <t>Studebaker</t>
+  </si>
+  <si>
+    <t>Suburu</t>
+  </si>
+  <si>
+    <t>Sunbeam</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>Volkswagon</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>Willys</t>
+  </si>
+  <si>
+    <t>Winnebago</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing Expenses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction </t>
+  </si>
+  <si>
+    <t>House Upkeep</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Assets </t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Expenses/Income</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Assets </t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fares </t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Health Insurance</t>
+  </si>
+  <si>
+    <t>Clinical Action</t>
+  </si>
+  <si>
+    <t>Health Equipment</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Other Expenditures</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Government Assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fees </t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Alcohal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothing, Fabric, Accessories </t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Men's Clothes</t>
+  </si>
+  <si>
+    <t>Women's Clothes</t>
+  </si>
+  <si>
+    <t>Other Clothing</t>
+  </si>
+  <si>
+    <t>Youth Clothing</t>
+  </si>
+  <si>
+    <t>Boy's Clothing</t>
+  </si>
+  <si>
+    <t>Girl's Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant's Clothing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessories </t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Headwear</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Question</t>
   </si>
 </sst>
 </file>
@@ -399,15 +759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A20D62-EF3F-4992-9551-50F41A702F6E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -438,7 +800,1411 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>